--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H2">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I2">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J2">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>4.337314382902333</v>
+        <v>347.7419246486578</v>
       </c>
       <c r="R2">
-        <v>39.03582944612099</v>
+        <v>3129.67732183792</v>
       </c>
       <c r="S2">
-        <v>3.454858029272453E-05</v>
+        <v>0.001177336701870488</v>
       </c>
       <c r="T2">
-        <v>3.454858029272453E-05</v>
+        <v>0.001177336701870488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H3">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I3">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J3">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>6.663432171846221</v>
+        <v>286.3678148145422</v>
       </c>
       <c r="R3">
-        <v>59.97088954661599</v>
+        <v>2577.31033333088</v>
       </c>
       <c r="S3">
-        <v>5.307711203081055E-05</v>
+        <v>0.0009695446959875594</v>
       </c>
       <c r="T3">
-        <v>5.307711203081054E-05</v>
+        <v>0.0009695446959875594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H4">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I4">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J4">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>3.329670468598222</v>
+        <v>165.2146591753778</v>
       </c>
       <c r="R4">
-        <v>29.967034217384</v>
+        <v>1486.9319325784</v>
       </c>
       <c r="S4">
-        <v>2.652226179087876E-05</v>
+        <v>0.0005593610322676023</v>
       </c>
       <c r="T4">
-        <v>2.652226179087875E-05</v>
+        <v>0.0005593610322676023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H5">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I5">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J5">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>5.299762327497223</v>
+        <v>166.9914882505022</v>
       </c>
       <c r="R5">
-        <v>47.697860947475</v>
+        <v>1502.92339425452</v>
       </c>
       <c r="S5">
-        <v>4.221489339709168E-05</v>
+        <v>0.0005653767753656145</v>
       </c>
       <c r="T5">
-        <v>4.221489339709167E-05</v>
+        <v>0.0005653767753656145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H6">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I6">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J6">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>2.662185803900667</v>
+        <v>125.7832385213289</v>
       </c>
       <c r="R6">
-        <v>23.959672235106</v>
+        <v>1132.04914669196</v>
       </c>
       <c r="S6">
-        <v>2.120545846590634E-05</v>
+        <v>0.0004258595604798377</v>
       </c>
       <c r="T6">
-        <v>2.120545846590633E-05</v>
+        <v>0.0004258595604798377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H7">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I7">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J7">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>3.494842461741111</v>
+        <v>210.4462217380756</v>
       </c>
       <c r="R7">
-        <v>31.45358215567</v>
+        <v>1894.01599564268</v>
       </c>
       <c r="S7">
-        <v>2.783792797585747E-05</v>
+        <v>0.0007124998254741429</v>
       </c>
       <c r="T7">
-        <v>2.783792797585747E-05</v>
+        <v>0.0007124998254741429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.3791</v>
       </c>
       <c r="I8">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J8">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>11.97954117136666</v>
+        <v>22.34858913302222</v>
       </c>
       <c r="R8">
-        <v>107.8158705423</v>
+        <v>201.1373021972</v>
       </c>
       <c r="S8">
-        <v>9.542221372295673E-05</v>
+        <v>7.566477423714507E-05</v>
       </c>
       <c r="T8">
-        <v>9.542221372295673E-05</v>
+        <v>7.566477423714508E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.3791</v>
       </c>
       <c r="I9">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J9">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>18.40421352897777</v>
@@ -1013,10 +1013,10 @@
         <v>165.6379217608</v>
       </c>
       <c r="S9">
-        <v>0.0001465975008260437</v>
+        <v>6.231045071318103E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001465975008260437</v>
+        <v>6.231045071318104E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.3791</v>
       </c>
       <c r="I10">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J10">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>9.196456826577776</v>
+        <v>10.61797348822222</v>
       </c>
       <c r="R10">
-        <v>82.7681114392</v>
+        <v>95.561761394</v>
       </c>
       <c r="S10">
-        <v>7.32537462200262E-05</v>
+        <v>3.594887185317727E-05</v>
       </c>
       <c r="T10">
-        <v>7.325374622002619E-05</v>
+        <v>3.594887185317728E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.3791</v>
       </c>
       <c r="I11">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J11">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>14.63779551027778</v>
+        <v>10.73216628507778</v>
       </c>
       <c r="R11">
-        <v>131.7401595925</v>
+        <v>96.5894965657</v>
       </c>
       <c r="S11">
-        <v>0.0001165963563740826</v>
+        <v>3.63354900930203E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001165963563740826</v>
+        <v>3.633549009302031E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.3791</v>
       </c>
       <c r="I12">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J12">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>7.352882827533332</v>
+        <v>8.083805024011111</v>
       </c>
       <c r="R12">
-        <v>66.17594544779999</v>
+        <v>72.7542452161</v>
       </c>
       <c r="S12">
-        <v>5.856888395072814E-05</v>
+        <v>2.736903338632296E-05</v>
       </c>
       <c r="T12">
-        <v>5.856888395072813E-05</v>
+        <v>2.736903338632297E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.3791</v>
       </c>
       <c r="I13">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J13">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>9.652657257888889</v>
+        <v>13.52490399014444</v>
       </c>
       <c r="R13">
-        <v>86.87391532100001</v>
+        <v>121.7241359113</v>
       </c>
       <c r="S13">
-        <v>7.688757947243177E-05</v>
+        <v>4.579075667381748E-05</v>
       </c>
       <c r="T13">
-        <v>7.688757947243177E-05</v>
+        <v>4.579075667381748E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H14">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I14">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J14">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>10105.7208069109</v>
+        <v>49363.19027695732</v>
       </c>
       <c r="R14">
-        <v>90951.48726219806</v>
+        <v>444268.7124926159</v>
       </c>
       <c r="S14">
-        <v>0.08049642610407011</v>
+        <v>0.167127089128517</v>
       </c>
       <c r="T14">
-        <v>0.08049642610407011</v>
+        <v>0.167127089128517</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H15">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I15">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J15">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>15525.45635380154</v>
+        <v>40650.91934534241</v>
       </c>
       <c r="R15">
-        <v>139729.1071842138</v>
+        <v>365858.2741080816</v>
       </c>
       <c r="S15">
-        <v>0.1236669579532716</v>
+        <v>0.137630282452724</v>
       </c>
       <c r="T15">
-        <v>0.1236669579532716</v>
+        <v>0.137630282452724</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H16">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I16">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J16">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>7757.961993097125</v>
+        <v>23452.80243576263</v>
       </c>
       <c r="R16">
-        <v>69821.65793787412</v>
+        <v>211075.2219218637</v>
       </c>
       <c r="S16">
-        <v>0.06179551426638116</v>
+        <v>0.07940326751581259</v>
       </c>
       <c r="T16">
-        <v>0.06179551426638115</v>
+        <v>0.07940326751581259</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H17">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I17">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J17">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>12348.17532152988</v>
+        <v>23705.02957752478</v>
       </c>
       <c r="R17">
-        <v>111133.5778937689</v>
+        <v>213345.266197723</v>
       </c>
       <c r="S17">
-        <v>0.09835854376759416</v>
+        <v>0.08025722342436316</v>
       </c>
       <c r="T17">
-        <v>0.09835854376759416</v>
+        <v>0.08025722342436316</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H18">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I18">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J18">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>6202.756843357827</v>
+        <v>17855.37347288111</v>
       </c>
       <c r="R18">
-        <v>55824.81159022044</v>
+        <v>160698.36125593</v>
       </c>
       <c r="S18">
-        <v>0.04940763429179811</v>
+        <v>0.0604522636621025</v>
       </c>
       <c r="T18">
-        <v>0.04940763429179811</v>
+        <v>0.0604522636621025</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H19">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I19">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J19">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>8142.804294223127</v>
+        <v>29873.58195943508</v>
       </c>
       <c r="R19">
-        <v>73285.23864800815</v>
+        <v>268862.2376349157</v>
       </c>
       <c r="S19">
-        <v>0.06486094922606503</v>
+        <v>0.1011418582695038</v>
       </c>
       <c r="T19">
-        <v>0.06486094922606504</v>
+        <v>0.1011418582695038</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H20">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I20">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J20">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>2.493394081051666</v>
+        <v>6.178255970242667</v>
       </c>
       <c r="R20">
-        <v>22.44054672946499</v>
+        <v>55.604303732184</v>
       </c>
       <c r="S20">
-        <v>1.986095957217066E-05</v>
+        <v>2.091748791770318E-05</v>
       </c>
       <c r="T20">
-        <v>1.986095957217067E-05</v>
+        <v>2.091748791770319E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H21">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I21">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J21">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>3.830610573737777</v>
+        <v>5.087835363397333</v>
       </c>
       <c r="R21">
-        <v>34.47549516363999</v>
+        <v>45.790518270576</v>
       </c>
       <c r="S21">
-        <v>3.051246584721439E-05</v>
+        <v>1.72256920486489E-05</v>
       </c>
       <c r="T21">
-        <v>3.051246584721439E-05</v>
+        <v>1.722569204864891E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H22">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I22">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J22">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>1.914129321817778</v>
+        <v>2.935333309186667</v>
       </c>
       <c r="R22">
-        <v>17.22716389636</v>
+        <v>26.41799978268</v>
       </c>
       <c r="S22">
-        <v>1.524686585463246E-05</v>
+        <v>9.938047132568412E-06</v>
       </c>
       <c r="T22">
-        <v>1.524686585463246E-05</v>
+        <v>9.938047132568414E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H23">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I23">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J23">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>3.046677010652778</v>
+        <v>2.966901849139334</v>
       </c>
       <c r="R23">
-        <v>27.420093095875</v>
+        <v>26.702116642254</v>
       </c>
       <c r="S23">
-        <v>2.426809680743072E-05</v>
+        <v>1.004492754610581E-05</v>
       </c>
       <c r="T23">
-        <v>2.426809680743072E-05</v>
+        <v>1.004492754610581E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H24">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I24">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J24">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>1.530412079943333</v>
+        <v>2.234763740771333</v>
       </c>
       <c r="R24">
-        <v>13.77370871949</v>
+        <v>20.112873666942</v>
       </c>
       <c r="S24">
-        <v>1.219039247726775E-05</v>
+        <v>7.56615520167085E-06</v>
       </c>
       <c r="T24">
-        <v>1.219039247726775E-05</v>
+        <v>7.566155201670851E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H25">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I25">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J25">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>2.009081827838889</v>
+        <v>3.738952751187334</v>
       </c>
       <c r="R25">
-        <v>18.08173645055</v>
+        <v>33.65057476068601</v>
       </c>
       <c r="S25">
-        <v>1.600320353012986E-05</v>
+        <v>1.265883112880353E-05</v>
       </c>
       <c r="T25">
-        <v>1.600320353012986E-05</v>
+        <v>1.265883112880353E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H26">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I26">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J26">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>4774.423539883695</v>
+        <v>5635.874399672836</v>
       </c>
       <c r="R26">
-        <v>42969.81185895326</v>
+        <v>50722.86959705552</v>
       </c>
       <c r="S26">
-        <v>0.03803034330860961</v>
+        <v>0.01908116711716929</v>
       </c>
       <c r="T26">
-        <v>0.03803034330860961</v>
+        <v>0.01908116711716929</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H27">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I27">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J27">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>7334.964590782656</v>
+        <v>4641.180490486364</v>
       </c>
       <c r="R27">
-        <v>66014.68131704391</v>
+        <v>41770.62441437728</v>
       </c>
       <c r="S27">
-        <v>0.05842615746460458</v>
+        <v>0.01571346951327676</v>
       </c>
       <c r="T27">
-        <v>0.05842615746460459</v>
+        <v>0.01571346951327676</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H28">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I28">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J28">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>3665.230523292897</v>
+        <v>2677.643971281156</v>
       </c>
       <c r="R28">
-        <v>32987.07470963608</v>
+        <v>24098.7957415304</v>
       </c>
       <c r="S28">
-        <v>0.02919514239606386</v>
+        <v>0.009065598072814136</v>
       </c>
       <c r="T28">
-        <v>0.02919514239606385</v>
+        <v>0.009065598072814136</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H29">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I29">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J29">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>5833.865793067027</v>
+        <v>2706.441147541125</v>
       </c>
       <c r="R29">
-        <v>52504.79213760325</v>
+        <v>24357.97032787012</v>
       </c>
       <c r="S29">
-        <v>0.04646925792681093</v>
+        <v>0.00916309558495723</v>
       </c>
       <c r="T29">
-        <v>0.04646925792681093</v>
+        <v>0.00916309558495723</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H30">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I30">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J30">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>2930.477583038913</v>
+        <v>2038.576552443418</v>
       </c>
       <c r="R30">
-        <v>26374.29824735022</v>
+        <v>18347.18897199076</v>
       </c>
       <c r="S30">
-        <v>0.02334251823495936</v>
+        <v>0.006901931647123604</v>
       </c>
       <c r="T30">
-        <v>0.02334251823495936</v>
+        <v>0.006901931647123604</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H31">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I31">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J31">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>3847.048344776988</v>
+        <v>3410.714640749231</v>
       </c>
       <c r="R31">
-        <v>34623.4351029929</v>
+        <v>30696.43176674308</v>
       </c>
       <c r="S31">
-        <v>0.0306433997852338</v>
+        <v>0.01154752775414762</v>
       </c>
       <c r="T31">
-        <v>0.0306433997852338</v>
+        <v>0.01154752775414762</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H32">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I32">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J32">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>6216.832882002158</v>
+        <v>23478.09348934716</v>
       </c>
       <c r="R32">
-        <v>55951.49593801942</v>
+        <v>211302.8414041245</v>
       </c>
       <c r="S32">
-        <v>0.04951975601237806</v>
+        <v>0.07948889448082157</v>
       </c>
       <c r="T32">
-        <v>0.04951975601237806</v>
+        <v>0.07948889448082157</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H33">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I33">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J33">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>9550.943412408262</v>
+        <v>19334.36796655697</v>
       </c>
       <c r="R33">
-        <v>85958.49071167437</v>
+        <v>174009.3116990128</v>
       </c>
       <c r="S33">
-        <v>0.07607738481111748</v>
+        <v>0.06545963946537459</v>
       </c>
       <c r="T33">
-        <v>0.07607738481111749</v>
+        <v>0.06545963946537459</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H34">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I34">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J34">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>4772.539647347736</v>
+        <v>11154.60903326291</v>
       </c>
       <c r="R34">
-        <v>42952.85682612962</v>
+        <v>100391.4812993662</v>
       </c>
       <c r="S34">
-        <v>0.0380153372917993</v>
+        <v>0.03776573855207479</v>
       </c>
       <c r="T34">
-        <v>0.03801533729179929</v>
+        <v>0.03776573855207479</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H35">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I35">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J35">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>7596.345064185525</v>
+        <v>11274.57316810949</v>
       </c>
       <c r="R35">
-        <v>68367.10557766972</v>
+        <v>101471.1585129854</v>
       </c>
       <c r="S35">
-        <v>0.06050816570175402</v>
+        <v>0.03817189659300047</v>
       </c>
       <c r="T35">
-        <v>0.06050816570175401</v>
+        <v>0.03817189659300047</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H36">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I36">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J36">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>3815.809227232974</v>
+        <v>8492.362939499857</v>
       </c>
       <c r="R36">
-        <v>34342.28304509676</v>
+        <v>76431.26645549871</v>
       </c>
       <c r="S36">
-        <v>0.03039456673660866</v>
+        <v>0.02875227249167557</v>
       </c>
       <c r="T36">
-        <v>0.03039456673660866</v>
+        <v>0.02875227249167557</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H37">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I37">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J37">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>5009.28676491993</v>
+        <v>14208.45666923381</v>
       </c>
       <c r="R37">
-        <v>45083.58088427937</v>
+        <v>127876.1100231043</v>
       </c>
       <c r="S37">
-        <v>0.03990113022227183</v>
+        <v>0.04810503516516393</v>
       </c>
       <c r="T37">
-        <v>0.03990113022227183</v>
+        <v>0.04810503516516393</v>
       </c>
     </row>
   </sheetData>
